--- a/Data_clean/MCAS/Estados_US/Edos_USA_2023/NORTH_DAKOTA_2023.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2023/NORTH_DAKOTA_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D146"/>
+  <dimension ref="A1:D140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,34 +360,34 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGUASCALIENTES</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AGUASCALIENTES</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
       <c r="C2">
@@ -400,7 +400,7 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C3">
@@ -413,12 +413,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BAJA CALIFORNIA</t>
+          <t>Baja California</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TIJUANA</t>
+          <t>Tijuana</t>
         </is>
       </c>
       <c r="C4">
@@ -431,7 +431,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C5">
@@ -444,12 +444,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BAJA CALIFORNIA SUR</t>
+          <t>Baja California Sur</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LA PAZ</t>
+          <t>La Paz</t>
         </is>
       </c>
       <c r="C6">
@@ -462,7 +462,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>LOS CABOS</t>
+          <t>Los Cabos</t>
         </is>
       </c>
       <c r="C7">
@@ -475,7 +475,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C8">
@@ -488,12 +488,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CHIAPAS</t>
+          <t>Chiapas</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CHAMULA</t>
+          <t>Chamula</t>
         </is>
       </c>
       <c r="C9">
@@ -506,7 +506,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>CHICOMUSELO</t>
+          <t>Chicomuselo</t>
         </is>
       </c>
       <c r="C10">
@@ -519,7 +519,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>COMITÁN DE DOMÍNGUEZ</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C11">
@@ -532,7 +532,7 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>COPAINALÁ</t>
+          <t>Copainalá</t>
         </is>
       </c>
       <c r="C12">
@@ -545,7 +545,7 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>FRONTERA COMALAPA</t>
+          <t>Frontera Comalapa</t>
         </is>
       </c>
       <c r="C13">
@@ -558,7 +558,7 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>HUIXTÁN</t>
+          <t>Huixtán</t>
         </is>
       </c>
       <c r="C14">
@@ -571,7 +571,7 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>LA TRINITARIA</t>
+          <t>La Trinitaria</t>
         </is>
       </c>
       <c r="C15">
@@ -584,7 +584,7 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>OCOTEPEC</t>
+          <t>Ocotepec</t>
         </is>
       </c>
       <c r="C16">
@@ -597,7 +597,7 @@
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>SIMOJOVEL</t>
+          <t>Simojovel</t>
         </is>
       </c>
       <c r="C17">
@@ -610,7 +610,7 @@
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C18">
@@ -623,12 +623,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CHIHUAHUA</t>
+          <t>Chihuahua</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BUENAVENTURA</t>
+          <t>Buenaventura</t>
         </is>
       </c>
       <c r="C19">
@@ -641,7 +641,7 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>CHIHUAHUA</t>
+          <t>Chihuahua</t>
         </is>
       </c>
       <c r="C20">
@@ -654,7 +654,7 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>CUAUHTÉMOC</t>
+          <t>Cuauhtémoc</t>
         </is>
       </c>
       <c r="C21">
@@ -667,7 +667,7 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>GUERRERO</t>
+          <t>Guerrero</t>
         </is>
       </c>
       <c r="C22">
@@ -680,7 +680,7 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>JUÁREZ</t>
+          <t>Juárez</t>
         </is>
       </c>
       <c r="C23">
@@ -693,7 +693,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>NUEVO CASAS GRANDES</t>
+          <t>Nuevo Casas Grandes</t>
         </is>
       </c>
       <c r="C24">
@@ -706,7 +706,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C25">
@@ -719,12 +719,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CIUDAD DE MÉXICO</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AZCAPOTZALCO</t>
+          <t>Azcapotzalco</t>
         </is>
       </c>
       <c r="C26">
@@ -737,7 +737,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>GUSTAVO A. MADERO</t>
+          <t>Gustavo A. Madero</t>
         </is>
       </c>
       <c r="C27">
@@ -750,7 +750,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>IZTACALCO</t>
+          <t>Iztacalco</t>
         </is>
       </c>
       <c r="C28">
@@ -763,7 +763,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>IZTAPALAPA</t>
+          <t>Iztapalapa</t>
         </is>
       </c>
       <c r="C29">
@@ -776,7 +776,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C30">
@@ -789,12 +789,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>COAHUILA DE ZARAGOZA</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MONCLOVA</t>
+          <t>Monclova</t>
         </is>
       </c>
       <c r="C31">
@@ -807,7 +807,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>SAN JUAN DE SABINAS</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C32">
@@ -820,7 +820,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>TORREÓN</t>
+          <t>Torreón</t>
         </is>
       </c>
       <c r="C33">
@@ -833,7 +833,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C34">
@@ -846,12 +846,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>DURANGO</t>
+          <t>Durango</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>DURANGO</t>
+          <t>Durango</t>
         </is>
       </c>
       <c r="C35">
@@ -864,7 +864,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>GUADALUPE VICTORIA</t>
+          <t>Guadalupe Victoria</t>
         </is>
       </c>
       <c r="C36">
@@ -877,7 +877,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>MEZQUITAL</t>
+          <t>Mezquital</t>
         </is>
       </c>
       <c r="C37">
@@ -890,7 +890,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>TEPEHUANES</t>
+          <t>Tepehuanes</t>
         </is>
       </c>
       <c r="C38">
@@ -903,7 +903,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C39">
@@ -916,12 +916,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CUERÁMARO</t>
+          <t>Cuerámaro</t>
         </is>
       </c>
       <c r="C40">
@@ -934,7 +934,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>IRAPUATO</t>
+          <t>Irapuato</t>
         </is>
       </c>
       <c r="C41">
@@ -947,7 +947,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>JARAL DEL PROGRESO</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C42">
@@ -960,7 +960,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>PÉNJAMO</t>
+          <t>Pénjamo</t>
         </is>
       </c>
       <c r="C43">
@@ -973,7 +973,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>ROMITA</t>
+          <t>Romita</t>
         </is>
       </c>
       <c r="C44">
@@ -986,7 +986,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>SILAO DE LA VICTORIA</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C45">
@@ -999,7 +999,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C46">
@@ -1012,12 +1012,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>GUERRERO</t>
+          <t>Guerrero</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>PETATLÁN</t>
+          <t>Petatlán</t>
         </is>
       </c>
       <c r="C47">
@@ -1030,7 +1030,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>TÉCPAN DE GALEANA</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C48">
@@ -1043,7 +1043,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C49">
@@ -1056,12 +1056,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>HIDALGO</t>
+          <t>Hidalgo</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>HUEJUTLA DE REYES</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C50">
@@ -1074,7 +1074,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>IXMIQUILPAN</t>
+          <t>Ixmiquilpan</t>
         </is>
       </c>
       <c r="C51">
@@ -1087,7 +1087,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>PACHUCA DE SOTO</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C52">
@@ -1100,7 +1100,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C53">
@@ -1113,12 +1113,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>JALISCO</t>
+          <t>Jalisco</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ARANDAS</t>
+          <t>Arandas</t>
         </is>
       </c>
       <c r="C54">
@@ -1131,7 +1131,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>AYUTLA</t>
+          <t>Ayutla</t>
         </is>
       </c>
       <c r="C55">
@@ -1144,7 +1144,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>LAGOS DE MORENO</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C56">
@@ -1157,7 +1157,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>PIHUAMO</t>
+          <t>Pihuamo</t>
         </is>
       </c>
       <c r="C57">
@@ -1170,7 +1170,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>SAN DIEGO DE ALEJANDRÍA</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C58">
@@ -1183,7 +1183,7 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>TLAJOMULCO DE ZÚÑIGA</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C59">
@@ -1196,7 +1196,7 @@
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>UNIÓN DE TULA</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C60">
@@ -1209,7 +1209,7 @@
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>VILLA HIDALGO</t>
+          <t>Villa Hidalgo</t>
         </is>
       </c>
       <c r="C61">
@@ -1222,7 +1222,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C62">
@@ -1235,12 +1235,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>MICHOACÁN DE OCAMPO</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>APATZINGÁN</t>
+          <t>Apatzingán</t>
         </is>
       </c>
       <c r="C63">
@@ -1253,7 +1253,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>BUENAVISTA</t>
+          <t>Buenavista</t>
         </is>
       </c>
       <c r="C64">
@@ -1266,7 +1266,7 @@
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>LOS REYES</t>
+          <t>Los Reyes</t>
         </is>
       </c>
       <c r="C65">
@@ -1279,7 +1279,7 @@
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>TURICATO</t>
+          <t>Turicato</t>
         </is>
       </c>
       <c r="C66">
@@ -1292,7 +1292,7 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C67">
@@ -1305,12 +1305,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>MORELOS</t>
+          <t>Morelos</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>CUERNAVACA</t>
+          <t>Cuernavaca</t>
         </is>
       </c>
       <c r="C68">
@@ -1323,7 +1323,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C69">
@@ -1336,12 +1336,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>NAYARIT</t>
+          <t>Nayarit</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>SANTIAGO IXCUINTLA</t>
+          <t>Santiago Ixcuintla</t>
         </is>
       </c>
       <c r="C70">
@@ -1354,7 +1354,7 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C71">
@@ -1367,12 +1367,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>NUEVO LEÓN</t>
+          <t>Nuevo León</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>CADEREYTA JIMÉNEZ</t>
+          <t>Cadereyta Jiménez</t>
         </is>
       </c>
       <c r="C72">
@@ -1385,7 +1385,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C73">
@@ -1398,12 +1398,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>OAXACA</t>
+          <t>Oaxaca</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>HEROICA CIUDAD DE HUAJUAPAN DE LEÓN</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C74">
@@ -1416,7 +1416,7 @@
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>HUAJUAPAN DE LEÓN</t>
+          <t>Huajuapan De León</t>
         </is>
       </c>
       <c r="C75">
@@ -1429,7 +1429,7 @@
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>OAXACA DE JUÁREZ</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C76">
@@ -1442,7 +1442,7 @@
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>SAN ANTONINO MONTE VERDE</t>
+          <t>San Antonino Monte Verde</t>
         </is>
       </c>
       <c r="C77">
@@ -1455,7 +1455,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>SAN BALTAZAR LOXICHA</t>
+          <t>San Baltazar Loxicha</t>
         </is>
       </c>
       <c r="C78">
@@ -1468,7 +1468,7 @@
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>SAN JUAN MIXTEPEC -DTO. 08 -</t>
+          <t>San Juan Mixtepec -Dto. 08 -</t>
         </is>
       </c>
       <c r="C79">
@@ -1481,7 +1481,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>SANTIAGO JAMILTEPEC</t>
+          <t>Santiago Jamiltepec</t>
         </is>
       </c>
       <c r="C80">
@@ -1494,7 +1494,7 @@
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>SANTIAGO PINOTEPA NACIONAL</t>
+          <t>Santiago Pinotepa Nacional</t>
         </is>
       </c>
       <c r="C81">
@@ -1507,7 +1507,7 @@
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>SANTOS REYES NOPALA</t>
+          <t>Santos Reyes Nopala</t>
         </is>
       </c>
       <c r="C82">
@@ -1520,7 +1520,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C83">
@@ -1533,12 +1533,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>AJALPAN</t>
+          <t>Ajalpan</t>
         </is>
       </c>
       <c r="C84">
@@ -1551,7 +1551,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>CHALCHICOMULA DE SESMA</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C85">
@@ -1564,7 +1564,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>CHIGNAHUAPAN</t>
+          <t>Chignahuapan</t>
         </is>
       </c>
       <c r="C86">
@@ -1577,7 +1577,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>CUAUTLANCINGO</t>
+          <t>Cuautlancingo</t>
         </is>
       </c>
       <c r="C87">
@@ -1590,7 +1590,7 @@
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>HUAUCHINANGO</t>
+          <t>Huauchinango</t>
         </is>
       </c>
       <c r="C88">
@@ -1603,7 +1603,7 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>VENUSTIANO CARRANZA</t>
+          <t>Venustiano Carranza</t>
         </is>
       </c>
       <c r="C89">
@@ -1616,7 +1616,7 @@
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>ZACAPOAXTLA</t>
+          <t>Zacapoaxtla</t>
         </is>
       </c>
       <c r="C90">
@@ -1629,7 +1629,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>ZACATLÁN</t>
+          <t>Zacatlán</t>
         </is>
       </c>
       <c r="C91">
@@ -1642,7 +1642,7 @@
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C92">
@@ -1655,12 +1655,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>QUERÉTARO</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>AMEALCO DE BONFIL</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C93">
@@ -1673,7 +1673,7 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>EL MARQUÉS</t>
+          <t>El Marqués</t>
         </is>
       </c>
       <c r="C94">
@@ -1686,7 +1686,7 @@
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>HUIMILPAN</t>
+          <t>Huimilpan</t>
         </is>
       </c>
       <c r="C95">
@@ -1699,7 +1699,7 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>QUERÉTARO</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="C96">
@@ -1712,7 +1712,7 @@
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>SAN JUAN DEL RÍO</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C97">
@@ -1725,7 +1725,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C98">
@@ -1738,12 +1738,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>SAN LUIS POTOSÍ</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>AQUISMÓN</t>
+          <t>Aquismón</t>
         </is>
       </c>
       <c r="C99">
@@ -1756,7 +1756,7 @@
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>RAYÓN</t>
+          <t>Rayón</t>
         </is>
       </c>
       <c r="C100">
@@ -1769,7 +1769,7 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>SAN LUIS POTOSÍ</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
       <c r="C101">
@@ -1782,7 +1782,7 @@
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>SANTA MARÍA DEL RÍO</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C102">
@@ -1795,7 +1795,7 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>TAMUÍN</t>
+          <t>Tamuín</t>
         </is>
       </c>
       <c r="C103">
@@ -1808,7 +1808,7 @@
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>XILITLA</t>
+          <t>Xilitla</t>
         </is>
       </c>
       <c r="C104">
@@ -1821,7 +1821,7 @@
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>ZARAGOZA</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="C105">
@@ -1834,7 +1834,7 @@
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C106">
@@ -1847,12 +1847,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>SINALOA</t>
+          <t>Sinaloa</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>COSALÁ</t>
+          <t>Cosalá</t>
         </is>
       </c>
       <c r="C107">
@@ -1865,7 +1865,7 @@
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>CULIACÁN</t>
+          <t>Culiacán</t>
         </is>
       </c>
       <c r="C108">
@@ -1878,7 +1878,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>ESCUINAPA</t>
+          <t>Escuinapa</t>
         </is>
       </c>
       <c r="C109">
@@ -1891,7 +1891,7 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C110">
@@ -1904,12 +1904,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>SONORA</t>
+          <t>Sonora</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ALAMOS</t>
+          <t>Alamos</t>
         </is>
       </c>
       <c r="C111">
@@ -1922,7 +1922,7 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>CAJEME</t>
+          <t>Cajeme</t>
         </is>
       </c>
       <c r="C112">
@@ -1935,7 +1935,7 @@
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>NACOZARI DE GARCÍA</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C113">
@@ -1948,7 +1948,7 @@
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C114">
@@ -1961,12 +1961,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>TABASCO</t>
+          <t>Tabasco</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>BALANCÁN</t>
+          <t>Balancán</t>
         </is>
       </c>
       <c r="C115">
@@ -1979,7 +1979,7 @@
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>TENOSIQUE</t>
+          <t>Tenosique</t>
         </is>
       </c>
       <c r="C116">
@@ -1992,7 +1992,7 @@
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C117">
@@ -2005,12 +2005,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>TAMAULIPAS</t>
+          <t>Tamaulipas</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>NUEVO LAREDO</t>
+          <t>Nuevo Laredo</t>
         </is>
       </c>
       <c r="C118">
@@ -2023,7 +2023,7 @@
     <row r="119">
       <c r="B119" t="inlineStr">
         <is>
-          <t>REYNOSA</t>
+          <t>Reynosa</t>
         </is>
       </c>
       <c r="C119">
@@ -2036,7 +2036,7 @@
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>TAMPICO</t>
+          <t>Tampico</t>
         </is>
       </c>
       <c r="C120">
@@ -2049,7 +2049,7 @@
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>XICOTÉNCATL</t>
+          <t>Xicoténcatl</t>
         </is>
       </c>
       <c r="C121">
@@ -2062,7 +2062,7 @@
     <row r="122">
       <c r="B122" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C122">
@@ -2075,12 +2075,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>TLAXCALA</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>TLAXCALA</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
       <c r="C123">
@@ -2093,7 +2093,7 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C124">
@@ -2106,12 +2106,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>VERACRUZ DE IGNACIO DE LA LLAVE</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ATLAHUILCO</t>
+          <t>Atlahuilco</t>
         </is>
       </c>
       <c r="C125">
@@ -2124,7 +2124,7 @@
     <row r="126">
       <c r="B126" t="inlineStr">
         <is>
-          <t>COATEPEC</t>
+          <t>Coatepec</t>
         </is>
       </c>
       <c r="C126">
@@ -2137,7 +2137,7 @@
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>CÓRDOBA</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="C127">
@@ -2150,7 +2150,7 @@
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>HUEYAPAN DE OCAMPO</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C128">
@@ -2163,7 +2163,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>ILAMATLÁN</t>
+          <t>Ilamatlán</t>
         </is>
       </c>
       <c r="C129">
@@ -2176,7 +2176,7 @@
     <row r="130">
       <c r="B130" t="inlineStr">
         <is>
-          <t>LAS CHOAPAS</t>
+          <t>Las Choapas</t>
         </is>
       </c>
       <c r="C130">
@@ -2189,7 +2189,7 @@
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>PASO DEL MACHO</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C131">
@@ -2202,7 +2202,7 @@
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>PÁNUCO</t>
+          <t>Pánuco</t>
         </is>
       </c>
       <c r="C132">
@@ -2215,7 +2215,7 @@
     <row r="133">
       <c r="B133" t="inlineStr">
         <is>
-          <t>TEQUILA</t>
+          <t>Tequila</t>
         </is>
       </c>
       <c r="C133">
@@ -2228,7 +2228,7 @@
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>TEZONAPA</t>
+          <t>Tezonapa</t>
         </is>
       </c>
       <c r="C134">
@@ -2241,7 +2241,7 @@
     <row r="135">
       <c r="B135" t="inlineStr">
         <is>
-          <t>XALAPA</t>
+          <t>Xalapa</t>
         </is>
       </c>
       <c r="C135">
@@ -2254,7 +2254,7 @@
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>ZONGOLICA</t>
+          <t>Zongolica</t>
         </is>
       </c>
       <c r="C136">
@@ -2267,7 +2267,7 @@
     <row r="137">
       <c r="B137" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C137">
@@ -2280,12 +2280,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ZACATECAS</t>
+          <t>Zacatecas</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>RÍO GRANDE</t>
+          <t>Río Grande</t>
         </is>
       </c>
       <c r="C138">
@@ -2298,7 +2298,7 @@
     <row r="139">
       <c r="B139" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C139">
@@ -2311,7 +2311,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C140">
@@ -2319,41 +2319,6 @@
       </c>
       <c r="D140">
         <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 789,030</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>Noviembre de 2024</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2023/NORTH_DAKOTA_2023.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2023/NORTH_DAKOTA_2023.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -460,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Los Cabos</t>
@@ -473,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Total</t>
@@ -504,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Chicomuselo</t>
@@ -517,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Comitán De Domínguez</t>
@@ -530,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Copainalá</t>
@@ -543,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Huixtán</t>
@@ -569,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -582,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Ocotepec</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Simojovel</t>
@@ -608,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Total</t>
@@ -639,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Chihuahua</t>
@@ -652,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -665,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Guerrero</t>
@@ -678,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -691,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Nuevo Casas Grandes</t>
@@ -704,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Total</t>
@@ -735,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -748,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -761,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -774,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Total</t>
@@ -805,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>San Juan De Sabinas</t>
@@ -818,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Torreón</t>
@@ -831,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Total</t>
@@ -862,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Guadalupe Victoria</t>
@@ -875,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Mezquital</t>
@@ -888,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Tepehuanes</t>
@@ -901,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Total</t>
@@ -932,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -945,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Jaral Del Progreso</t>
@@ -958,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -971,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Romita</t>
@@ -984,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Silao De La Victoria</t>
@@ -997,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1028,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -1041,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1072,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -1085,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -1098,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1129,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Ayutla</t>
@@ -1142,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -1155,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Pihuamo</t>
@@ -1168,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>San Diego De Alejandría</t>
@@ -1181,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Tlajomulco De Zúñiga</t>
@@ -1194,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Unión De Tula</t>
@@ -1207,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Villa Hidalgo</t>
@@ -1220,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1251,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Buenavista</t>
@@ -1264,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Los Reyes</t>
@@ -1277,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Turicato</t>
@@ -1290,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1321,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1352,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1383,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1414,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Huajuapan De León</t>
@@ -1427,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Oaxaca De Juárez</t>
@@ -1440,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>San Antonino Monte Verde</t>
@@ -1453,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>San Baltazar Loxicha</t>
@@ -1466,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>San Juan Mixtepec -Dto. 08 -</t>
@@ -1479,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Santiago Jamiltepec</t>
@@ -1492,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Santiago Pinotepa Nacional</t>
@@ -1505,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Santos Reyes Nopala</t>
@@ -1518,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1549,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Chalchicomula De Sesma</t>
@@ -1562,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Chignahuapan</t>
@@ -1575,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Cuautlancingo</t>
@@ -1588,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Huauchinango</t>
@@ -1601,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -1614,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Zacapoaxtla</t>
@@ -1627,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Zacatlán</t>
@@ -1640,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1671,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>El Marqués</t>
@@ -1684,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Huimilpan</t>
@@ -1697,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -1710,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>San Juan Del Río</t>
@@ -1723,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1754,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Rayón</t>
@@ -1767,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>San Luis Potosí</t>
@@ -1780,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Santa María Del Río</t>
@@ -1793,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Tamuín</t>
@@ -1806,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Xilitla</t>
@@ -1819,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Zaragoza</t>
@@ -1832,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1863,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Culiacán</t>
@@ -1876,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Escuinapa</t>
@@ -1889,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1920,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Cajeme</t>
@@ -1933,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Nacozari De García</t>
@@ -1946,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1977,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Tenosique</t>
@@ -1990,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2021,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Reynosa</t>
@@ -2034,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Tampico</t>
@@ -2047,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Xicoténcatl</t>
@@ -2060,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2091,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2122,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Coatepec</t>
@@ -2135,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Córdoba</t>
@@ -2148,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Hueyapan De Ocampo</t>
@@ -2161,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Ilamatlán</t>
@@ -2174,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -2187,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Paso Del Macho</t>
@@ -2200,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Pánuco</t>
@@ -2213,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Tequila</t>
@@ -2226,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Tezonapa</t>
@@ -2239,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -2252,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Zongolica</t>
@@ -2265,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2296,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Total</t>
